--- a/Data_Raw.xlsx
+++ b/Data_Raw.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11027"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xin Yang\Desktop\VS code workplace\Tobacco_Screen_Final_V1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xin.yang/Desktop/Python Heatmap/Interactive Heatmap/Tobacco_ER_Round-2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D654320-1331-4043-844B-88E0D7AD1158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F24C5A7-2E2A-7743-9C15-88F3DC1AF96A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="29920" windowHeight="18660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
@@ -319,12 +319,6 @@
     <t>RUBY TOBACCO (S2) 3% (40%VG) (E-400518)</t>
   </si>
   <si>
-    <t>SRI LANKA  TOBACCO 5% (E-400451)</t>
-  </si>
-  <si>
-    <t>VERMONT TOBACCO  5% (E-400454)</t>
-  </si>
-  <si>
     <t>(OREGON) AMERICAN TOBACCO 5% (CHINA WL) DDS00737</t>
   </si>
   <si>
@@ -332,6 +326,12 @@
   </si>
   <si>
     <t>CALIFORNIA TOBACCO 5% (E-400452)</t>
+  </si>
+  <si>
+    <t>SRI LANKA TOBACCO 5% (E-400451)</t>
+  </si>
+  <si>
+    <t>VERMONT TOBACCO 5% (E-400454)</t>
   </si>
 </sst>
 </file>
@@ -701,100 +701,100 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E129F03-9203-41E1-BC58-258A9641F303}">
   <dimension ref="A1:CH19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="53.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="53.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.1640625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="30.83203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="30.1640625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="22.5" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="16" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="50" max="50" width="15" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="18.5" bestFit="1" customWidth="1"/>
     <col min="57" max="57" width="19" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="16.1640625" bestFit="1" customWidth="1"/>
     <col min="67" max="67" width="18" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="19.5" bestFit="1" customWidth="1"/>
     <col min="72" max="72" width="12" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="24.33203125" bestFit="1" customWidth="1"/>
     <col min="77" max="77" width="22" bestFit="1" customWidth="1"/>
     <col min="78" max="78" width="23" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="29.5" bestFit="1" customWidth="1"/>
     <col min="81" max="81" width="22" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="27.6640625" bestFit="1" customWidth="1"/>
     <col min="83" max="83" width="20" bestFit="1" customWidth="1"/>
     <col min="84" max="84" width="12" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="5.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1054,7 +1054,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>86</v>
       </c>
@@ -1098,7 +1098,7 @@
         <v>0.2283464566929134</v>
       </c>
     </row>
-    <row r="3" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>87</v>
       </c>
@@ -1148,7 +1148,7 @@
         <v>0.2283464566929134</v>
       </c>
     </row>
-    <row r="4" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>88</v>
       </c>
@@ -1204,7 +1204,7 @@
         <v>1.8691588785046731E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>89</v>
       </c>
@@ -1242,7 +1242,7 @@
         <v>0.35511811023622047</v>
       </c>
     </row>
-    <row r="6" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>90</v>
       </c>
@@ -1328,7 +1328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>91</v>
       </c>
@@ -1414,7 +1414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>92</v>
       </c>
@@ -1464,7 +1464,7 @@
         <v>0.74205607476635516</v>
       </c>
     </row>
-    <row r="9" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>93</v>
       </c>
@@ -1505,7 +1505,7 @@
         <v>0.49718343195266268</v>
       </c>
     </row>
-    <row r="10" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>94</v>
       </c>
@@ -1552,7 +1552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>95</v>
       </c>
@@ -1611,7 +1611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>96</v>
       </c>
@@ -1685,7 +1685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>97</v>
       </c>
@@ -1774,7 +1774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>98</v>
       </c>
@@ -1884,9 +1884,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B15">
         <v>0.59997162559978923</v>
@@ -1952,9 +1952,9 @@
         <v>0.15887850467289719</v>
       </c>
     </row>
-    <row r="16" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B16">
         <v>0.59465142556026762</v>
@@ -2014,9 +2014,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B17">
         <v>0.79732571278013387</v>
@@ -2076,9 +2076,9 @@
         <v>0.30645161290322581</v>
       </c>
     </row>
-    <row r="18" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B18">
         <v>0.56931713965778441</v>
@@ -2162,9 +2162,9 @@
         <v>0.84186046511627899</v>
       </c>
     </row>
-    <row r="19" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B19">
         <v>8.6643257786492842E-4</v>
